--- a/data/expt_2/raw_transcripts/game43.xlsx
+++ b/data/expt_2/raw_transcripts/game43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="287">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Okay, now you're on camera.</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
     <t xml:space="preserve">apple</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Okay, and [id88], you're going to guess which one you think it is.</t>
   </si>
   <si>
@@ -463,7 +469,7 @@
     <t xml:space="preserve">It's jump?</t>
   </si>
   <si>
-    <t xml:space="preserve">jumo</t>
+    <t xml:space="preserve">jump</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, tell us what you see in the black box?</t>
@@ -560,9 +566,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jump.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jump</t>
   </si>
   <si>
     <t xml:space="preserve">To touch the one that you think it is.</t>
@@ -960,7 +963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,6 +973,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,12 +1169,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L307" activeCellId="0" sqref="L307"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I291" activeCellId="0" sqref="I291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,6 +1207,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1209,10 +1219,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,10 +1233,10 @@
         <v>3000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,10 +1247,10 @@
         <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,10 +1261,10 @@
         <v>5000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,10 +1275,10 @@
         <v>6000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,10 +1289,10 @@
         <v>13000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,10 +1303,10 @@
         <v>16000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,10 +1317,10 @@
         <v>17000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,10 +1331,10 @@
         <v>18000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,10 +1345,10 @@
         <v>19000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,10 +1359,10 @@
         <v>21000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,10 +1373,10 @@
         <v>23000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,10 +1387,10 @@
         <v>25000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,10 +1401,10 @@
         <v>27000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,10 +1415,10 @@
         <v>31000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,10 +1429,10 @@
         <v>38000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,10 +1443,10 @@
         <v>41000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,10 +1457,10 @@
         <v>46000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,10 +1471,10 @@
         <v>50000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,10 +1485,10 @@
         <v>50000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,10 +1499,10 @@
         <v>55000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,10 +1513,10 @@
         <v>60580</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,10 +1527,10 @@
         <v>66760</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,10 +1541,10 @@
         <v>70740</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,10 +1555,10 @@
         <v>73700</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,10 +1569,10 @@
         <v>82100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,10 +1583,10 @@
         <v>83100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,10 +1597,10 @@
         <v>87820</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,10 +1611,10 @@
         <v>92220</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,10 +1625,10 @@
         <v>93220</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,10 +1639,10 @@
         <v>94220</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,10 +1653,10 @@
         <v>95220</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,10 +1667,10 @@
         <v>100980</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,10 +1681,10 @@
         <v>103600</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,10 +1695,10 @@
         <v>107340</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,10 +1709,10 @@
         <v>112400</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,10 +1723,10 @@
         <v>116500</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,10 +1737,10 @@
         <v>118740</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,10 +1751,10 @@
         <v>125020</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,10 +1765,10 @@
         <v>129320</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,10 +1779,10 @@
         <v>138320</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,10 +1793,10 @@
         <v>144320</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,10 +1807,10 @@
         <v>147320</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,19 +1821,22 @@
         <v>152320</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,10 +1847,10 @@
         <v>152320</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,10 +1861,10 @@
         <v>153320</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,13 +1875,16 @@
         <v>158320</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,10 +1895,10 @@
         <v>158320</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,10 +1909,10 @@
         <v>160560</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,15 +1923,18 @@
         <v>162160</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H51" s="2"/>
+      <c r="I51" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -1925,10 +1944,10 @@
         <v>164320</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,10 +1958,10 @@
         <v>169320</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,10 +1972,10 @@
         <v>172320</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,10 +1986,10 @@
         <v>175320</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,10 +2000,10 @@
         <v>179320</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,10 +2014,10 @@
         <v>183320</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,19 +2028,22 @@
         <v>185320</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,10 +2054,10 @@
         <v>187320</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,10 +2068,10 @@
         <v>191960</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,15 +2082,18 @@
         <v>198040</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H61" s="2"/>
+      <c r="I61" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -2078,10 +2103,10 @@
         <v>198040</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,10 +2117,10 @@
         <v>204840</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,10 +2131,10 @@
         <v>211320</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,19 +2145,22 @@
         <v>211320</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,10 +2171,10 @@
         <v>217160</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,10 +2185,10 @@
         <v>221920</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,19 +2199,22 @@
         <v>223920</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,10 +2225,10 @@
         <v>227920</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,13 +2239,16 @@
         <v>228920</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,10 +2259,10 @@
         <v>233540</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,10 +2273,10 @@
         <v>235660</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,15 +2287,18 @@
         <v>237660</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H73" s="2"/>
+      <c r="I73" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
@@ -2271,13 +2308,16 @@
         <v>242160</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,10 +2328,10 @@
         <v>242160</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,10 +2342,10 @@
         <v>245160</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,10 +2356,13 @@
         <v>246160</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,10 +2373,10 @@
         <v>247160</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2387,10 @@
         <v>249280</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,16 +2401,19 @@
         <v>251160</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,13 +2424,16 @@
         <v>257160</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2444,10 @@
         <v>260160</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,15 +2458,18 @@
         <v>261160</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H83" s="2"/>
+      <c r="I83" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
@@ -2427,10 +2479,10 @@
         <v>263160</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,10 +2493,10 @@
         <v>265160</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,10 +2507,10 @@
         <v>266160</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,10 +2521,10 @@
         <v>270160</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,10 +2535,10 @@
         <v>272160</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,15 +2549,18 @@
         <v>273160</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H89" s="2"/>
+      <c r="I89" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
@@ -2515,10 +2570,10 @@
         <v>274160</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,15 +2584,18 @@
         <v>276160</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H91" s="2"/>
+      <c r="I91" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
@@ -2547,10 +2605,10 @@
         <v>277160</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,10 +2619,10 @@
         <v>278160</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,15 +2633,18 @@
         <v>280160</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H94" s="2"/>
+      <c r="I94" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
@@ -2593,10 +2654,10 @@
         <v>281160</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,10 +2668,10 @@
         <v>282160</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,13 +2682,16 @@
         <v>284160</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,10 +2702,10 @@
         <v>289160</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,16 +2716,19 @@
         <v>292160</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,10 +2739,10 @@
         <v>296160</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,10 +2753,10 @@
         <v>298160</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,10 +2767,10 @@
         <v>302160</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,10 +2781,10 @@
         <v>304160</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,10 +2795,10 @@
         <v>306160</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,10 +2809,10 @@
         <v>311160</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,10 +2823,10 @@
         <v>312660</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,10 +2837,10 @@
         <v>314160</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,16 +2851,19 @@
         <v>320160</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,10 +2874,10 @@
         <v>324160</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,10 +2888,10 @@
         <v>326160</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,16 +2902,19 @@
         <v>332160</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,10 +2925,10 @@
         <v>335160</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,10 +2939,10 @@
         <v>336160</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +2953,10 @@
         <v>338920</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,13 +2967,16 @@
         <v>341440</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,10 +2987,10 @@
         <v>346480</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,10 +3001,10 @@
         <v>348400</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,16 +3015,19 @@
         <v>354400</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,10 +3038,10 @@
         <v>358800</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,13 +3052,16 @@
         <v>362880</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +3072,10 @@
         <v>362880</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3086,10 @@
         <v>365040</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,16 +3100,19 @@
         <v>372040</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,10 +3123,10 @@
         <v>373040</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,10 +3137,10 @@
         <v>375040</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,10 +3151,10 @@
         <v>377040</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,13 +3165,16 @@
         <v>378040</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,10 +3185,10 @@
         <v>380040</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +3199,10 @@
         <v>382040</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,10 +3213,10 @@
         <v>384040</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,10 +3227,10 @@
         <v>387040</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,10 +3241,10 @@
         <v>390040</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,16 +3255,19 @@
         <v>392040</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,16 +3278,19 @@
         <v>396040</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,16 +3301,19 @@
         <v>399040</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,10 +3324,10 @@
         <v>403040</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,13 +3338,16 @@
         <v>406040</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +3358,10 @@
         <v>411040</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,13 +3372,16 @@
         <v>414040</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,10 +3392,10 @@
         <v>415040</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,16 +3406,19 @@
         <v>417040</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3429,10 @@
         <v>419040</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,10 +3443,10 @@
         <v>420040</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,10 +3457,10 @@
         <v>421040</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,10 +3471,10 @@
         <v>426040</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,19 +3485,22 @@
         <v>428040</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,10 +3511,10 @@
         <v>432040</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,10 +3525,10 @@
         <v>434040</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,13 +3539,16 @@
         <v>436040</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,16 +3559,19 @@
         <v>438040</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,10 +3582,13 @@
         <v>439040</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,10 +3599,10 @@
         <v>441040</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,10 +3613,10 @@
         <v>443040</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +3627,10 @@
         <v>448040</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,10 +3641,10 @@
         <v>450040</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,10 +3655,10 @@
         <v>451040</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3669,10 @@
         <v>452040</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,19 +3683,22 @@
         <v>458040</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>8</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,13 +3709,16 @@
         <v>461040</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,13 +3729,16 @@
         <v>464040</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,13 +3749,16 @@
         <v>466040</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,13 +3769,16 @@
         <v>468040</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,14 +3789,12 @@
         <v>471040</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="n">
@@ -3673,10 +3804,10 @@
         <v>474040</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,16 +3818,19 @@
         <v>476040</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,10 +3841,10 @@
         <v>477040</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,13 +3855,16 @@
         <v>479040</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,13 +3875,16 @@
         <v>480040</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>180</v>
+        <v>149</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,10 +3895,10 @@
         <v>486160</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,10 +3909,10 @@
         <v>487540</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,10 +3923,10 @@
         <v>490280</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,10 +3937,10 @@
         <v>491280</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,10 +3951,10 @@
         <v>492280</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,10 +3965,10 @@
         <v>493280</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,10 +3979,10 @@
         <v>494280</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,10 +3993,10 @@
         <v>495280</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,10 +4007,10 @@
         <v>498280</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,16 +4021,19 @@
         <v>502280</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E178" s="2" t="n">
         <v>9</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,16 +4044,19 @@
         <v>509800</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,13 +4067,16 @@
         <v>514800</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,10 +4087,10 @@
         <v>516800</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,10 +4101,10 @@
         <v>522800</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,13 +4115,16 @@
         <v>525800</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,10 +4135,10 @@
         <v>526800</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,13 +4149,16 @@
         <v>528800</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,13 +4169,16 @@
         <v>529800</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,16 +4189,19 @@
         <v>531800</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,13 +4212,16 @@
         <v>532800</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4068,13 +4232,16 @@
         <v>533800</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,10 +4252,10 @@
         <v>536800</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,13 +4266,16 @@
         <v>538800</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,10 +4286,10 @@
         <v>541800</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,10 +4300,10 @@
         <v>544800</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,10 +4314,10 @@
         <v>548800</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,19 +4328,22 @@
         <v>552800</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E195" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,13 +4354,16 @@
         <v>554800</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,10 +4374,10 @@
         <v>556800</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,10 +4388,10 @@
         <v>558800</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,10 +4402,10 @@
         <v>563800</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,10 +4416,10 @@
         <v>565800</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,16 +4430,19 @@
         <v>567800</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E201" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,10 +4453,10 @@
         <v>568800</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,10 +4467,10 @@
         <v>570800</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,13 +4481,16 @@
         <v>572800</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,16 +4501,19 @@
         <v>578800</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,10 +4524,10 @@
         <v>580800</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,10 +4538,10 @@
         <v>581800</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,10 +4552,10 @@
         <v>584800</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,16 +4566,19 @@
         <v>588800</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E209" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,16 +4589,19 @@
         <v>590800</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,13 +4612,16 @@
         <v>595800</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,13 +4632,16 @@
         <v>597800</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,10 +4652,10 @@
         <v>600800</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,16 +4666,19 @@
         <v>602800</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,13 +4689,16 @@
         <v>604800</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,13 +4709,16 @@
         <v>606800</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,13 +4729,16 @@
         <v>608800</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,13 +4749,16 @@
         <v>610800</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,16 +4769,19 @@
         <v>611800</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,10 +4792,10 @@
         <v>614800</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,10 +4806,10 @@
         <v>615800</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,10 +4820,10 @@
         <v>617800</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,10 +4834,10 @@
         <v>620800</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,10 +4848,10 @@
         <v>623800</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,19 +4862,22 @@
         <v>624800</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E225" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,13 +4888,16 @@
         <v>636800</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,10 +4908,10 @@
         <v>639800</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,10 +4922,10 @@
         <v>642800</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,10 +4936,10 @@
         <v>645800</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,13 +4950,16 @@
         <v>647800</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,10 +4970,10 @@
         <v>649800</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,16 +4984,19 @@
         <v>651800</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,13 +5007,16 @@
         <v>652800</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,10 +5027,10 @@
         <v>653800</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,10 +5041,10 @@
         <v>654800</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,10 +5055,10 @@
         <v>656800</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,10 +5069,10 @@
         <v>660800</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,10 +5083,10 @@
         <v>662800</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,19 +5097,22 @@
         <v>664800</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E239" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4890,13 +5123,16 @@
         <v>667800</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,13 +5143,16 @@
         <v>668800</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,10 +5163,10 @@
         <v>670800</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,10 +5177,10 @@
         <v>672800</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,10 +5191,10 @@
         <v>675800</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,19 +5205,22 @@
         <v>679800</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E245" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,10 +5231,10 @@
         <v>682800</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,10 +5245,10 @@
         <v>689800</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,10 +5259,10 @@
         <v>692800</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,19 +5273,22 @@
         <v>694800</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E249" s="2" t="n">
         <v>16</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>180</v>
+        <v>149</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,10 +5299,10 @@
         <v>696800</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,16 +5313,19 @@
         <v>698800</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,13 +5336,16 @@
         <v>700800</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,10 +5356,10 @@
         <v>703800</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,10 +5370,10 @@
         <v>706800</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,19 +5384,22 @@
         <v>710800</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E255" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,10 +5410,10 @@
         <v>711800</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,13 +5424,13 @@
         <v>715800</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,10 +5441,10 @@
         <v>717800</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,16 +5455,19 @@
         <v>720800</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,13 +5478,16 @@
         <v>721800</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,13 +5498,13 @@
         <v>724800</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,10 +5515,10 @@
         <v>726800</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,10 +5529,10 @@
         <v>729800</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,16 +5543,19 @@
         <v>732800</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5303,10 +5566,10 @@
         <v>734800</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,10 +5580,10 @@
         <v>736800</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,10 +5594,10 @@
         <v>738800</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,10 +5608,10 @@
         <v>739800</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,13 +5622,13 @@
         <v>740800</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,10 +5639,10 @@
         <v>742800</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,13 +5653,13 @@
         <v>744800</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5407,10 +5670,10 @@
         <v>745800</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,10 +5684,10 @@
         <v>747800</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,19 +5698,22 @@
         <v>749800</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E274" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,13 +5724,16 @@
         <v>752800</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,13 +5744,16 @@
         <v>754800</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,10 +5764,10 @@
         <v>756800</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,13 +5778,16 @@
         <v>757800</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,16 +5798,19 @@
         <v>760800</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>180</v>
+        <v>149</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,10 +5821,10 @@
         <v>765800</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,10 +5835,10 @@
         <v>767800</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,10 +5849,10 @@
         <v>769800</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,10 +5863,10 @@
         <v>770300</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,10 +5877,10 @@
         <v>771180</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,10 +5891,10 @@
         <v>773480</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,19 +5905,22 @@
         <v>778340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E286" s="2" t="n">
         <v>19</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,13 +5931,16 @@
         <v>780820</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,13 +5951,16 @@
         <v>781700</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,10 +5971,10 @@
         <v>784880</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5698,13 +5985,16 @@
         <v>788560</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,10 +6005,10 @@
         <v>789060</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5729,10 +6019,10 @@
         <v>790080</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,10 +6033,10 @@
         <v>792220</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5757,10 +6047,10 @@
         <v>797080</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,10 +6061,10 @@
         <v>799100</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,10 +6075,10 @@
         <v>799580</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,10 +6089,10 @@
         <v>804380</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,10 +6103,10 @@
         <v>809980</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game43.xlsx
+++ b/data/expt_2/raw_transcripts/game43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="287">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -963,7 +963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -973,6 +973,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1172,9 +1176,9 @@
   <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I291" activeCellId="0" sqref="I291"/>
+      <selection pane="bottomLeft" activeCell="F79" activeCellId="0" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2361,6 +2365,9 @@
       <c r="D77" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F77" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="I77" s="3" t="s">
         <v>56</v>
       </c>
@@ -3587,6 +3594,9 @@
       <c r="D151" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F151" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="I151" s="3" t="s">
         <v>56</v>
       </c>
@@ -3879,6 +3889,9 @@
       </c>
       <c r="D168" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>149</v>

--- a/data/expt_2/raw_transcripts/game43.xlsx
+++ b/data/expt_2/raw_transcripts/game43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="288">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -436,7 +436,7 @@
     <t xml:space="preserve"> Look like something, a lock, and then a triangle and then a square, and then...</t>
   </si>
   <si>
-    <t xml:space="preserve">something, a lock, and then a triangle and then a square</t>
+    <t xml:space="preserve">something, a lock, </t>
   </si>
   <si>
     <t xml:space="preserve"> [id89], make your best guess.</t>
@@ -469,105 +469,105 @@
     <t xml:space="preserve">It's jump?</t>
   </si>
   <si>
+    <t xml:space="preserve"> Oh, tell us what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone is jumping or walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Say that again, [id88].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone is jumping or walking?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one is it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A jumping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a jumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So touch them when you think it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There you go!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good job, [id88].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good job, [id88]. Way to help out [id89]. Okay, now you're going to tell us what you see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Okay. And [id89], you're going to touch the one. Did you hear [id88]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Say it again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a person walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person walking?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So touch your best guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep going. You guys are doing great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay. So what's in your best guess?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uh, is Hoppy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumping or hop?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is he doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumping or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's how?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which one is it, [id89]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell us what's in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoppy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's hobby?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump.</t>
+  </si>
+  <si>
     <t xml:space="preserve">jump</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oh, tell us what you see in the black box?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone is jumping or walking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Say that again, [id88].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone is jumping or walking?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which one is it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jumping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a jumping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So touch them when you think it is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There you go!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Good job, [id88].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Good job, [id88]. Way to help out [id89]. Okay, now you're going to tell us what you see.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person walking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person walking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay. And [id89], you're going to touch the one. Did you hear [id88]?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Say it again.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's a person walking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person walking?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So touch your best guess.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Touch it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep going. You guys are doing great.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay. So what's in your best guess?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black box?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uh, is Hoppy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumping or hop?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is he doing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumping or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's how?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Which one is it, [id89]?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell us what's in the black box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoppy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's hobby?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump.</t>
-  </si>
-  <si>
     <t xml:space="preserve">To touch the one that you think it is.</t>
   </si>
   <si>
@@ -796,9 +796,6 @@
     <t xml:space="preserve">It's the one that is showing his hands.</t>
   </si>
   <si>
-    <t xml:space="preserve">the one that is showing his hands</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [id89], did you hear [id88]?</t>
   </si>
   <si>
@@ -853,12 +850,15 @@
     <t xml:space="preserve"> It's a rectangle and then a triangle, and then a square</t>
   </si>
   <si>
-    <t xml:space="preserve">a rectangle and then a triangle, and then a square and then the rectangle then a triangle and then, and then a triangle</t>
+    <t xml:space="preserve">a rectangle and then a triangle, and then a square </t>
   </si>
   <si>
     <t xml:space="preserve">and then the rectangle.</t>
   </si>
   <si>
+    <t xml:space="preserve">and then the rectangle</t>
+  </si>
+  <si>
     <t xml:space="preserve">And then...and then</t>
   </si>
   <si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t xml:space="preserve">Then a triangle and then, and then a triangle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and then a triangle and then a triangle</t>
   </si>
   <si>
     <t xml:space="preserve"> You're the guesser, [id89].</t>
@@ -1176,9 +1179,9 @@
   <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F79" activeCellId="0" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="G293" activeCellId="0" sqref="G293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2365,7 +2368,7 @@
       <c r="D77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -3316,9 +3319,7 @@
       <c r="F135" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="H135" s="2"/>
       <c r="I135" s="3" t="s">
         <v>56</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>403040</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
@@ -3345,7 +3346,7 @@
         <v>406040</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>59</v>
@@ -3365,7 +3366,7 @@
         <v>411040</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>10</v>
@@ -3379,7 +3380,7 @@
         <v>414040</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>59</v>
@@ -3399,7 +3400,7 @@
         <v>415040</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
@@ -3413,7 +3414,7 @@
         <v>417040</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>12</v>
@@ -3422,7 +3423,7 @@
         <v>54</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>56</v>
@@ -3436,7 +3437,7 @@
         <v>419040</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>10</v>
@@ -3450,7 +3451,7 @@
         <v>420040</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>10</v>
@@ -3464,7 +3465,7 @@
         <v>421040</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>10</v>
@@ -3478,7 +3479,7 @@
         <v>426040</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>10</v>
@@ -3492,7 +3493,7 @@
         <v>428040</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>59</v>
@@ -3504,7 +3505,7 @@
         <v>54</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>56</v>
@@ -3518,7 +3519,7 @@
         <v>432040</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>10</v>
@@ -3532,7 +3533,7 @@
         <v>434040</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>10</v>
@@ -3546,7 +3547,7 @@
         <v>436040</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>59</v>
@@ -3566,7 +3567,7 @@
         <v>438040</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>12</v>
@@ -3575,7 +3576,7 @@
         <v>60</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>56</v>
@@ -3594,7 +3595,7 @@
       <c r="D151" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I151" s="3" t="s">
@@ -3609,7 +3610,7 @@
         <v>441040</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>10</v>
@@ -3623,7 +3624,7 @@
         <v>443040</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>10</v>
@@ -3651,7 +3652,7 @@
         <v>450040</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>10</v>
@@ -3665,7 +3666,7 @@
         <v>451040</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -3679,7 +3680,7 @@
         <v>452040</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>10</v>
@@ -3693,7 +3694,7 @@
         <v>458040</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>12</v>
@@ -3719,7 +3720,7 @@
         <v>461040</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>59</v>
@@ -3739,7 +3740,7 @@
         <v>464040</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>59</v>
@@ -3759,7 +3760,7 @@
         <v>466040</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>59</v>
@@ -3779,7 +3780,7 @@
         <v>468040</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>59</v>
@@ -3799,7 +3800,7 @@
         <v>471040</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>10</v>
@@ -3814,7 +3815,7 @@
         <v>474040</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>10</v>
@@ -3828,7 +3829,7 @@
         <v>476040</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>12</v>
@@ -3836,9 +3837,7 @@
       <c r="F165" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H165" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="H165" s="2"/>
       <c r="I165" s="3" t="s">
         <v>56</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>479040</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>59</v>
@@ -3885,16 +3884,16 @@
         <v>480040</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F168" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>56</v>
@@ -4353,7 +4352,7 @@
         <v>54</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>56</v>
@@ -4367,7 +4366,7 @@
         <v>554800</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>59</v>
@@ -4687,9 +4686,7 @@
       <c r="F214" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="H214" s="2"/>
       <c r="I214" s="3" t="s">
         <v>56</v>
       </c>
@@ -4790,9 +4787,7 @@
       <c r="F219" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H219" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="H219" s="2"/>
       <c r="I219" s="3" t="s">
         <v>56</v>
       </c>
@@ -5298,7 +5293,7 @@
         <v>54</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>56</v>
@@ -5408,9 +5403,7 @@
       <c r="F255" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H255" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="H255" s="2"/>
       <c r="I255" s="3" t="s">
         <v>56</v>
       </c>
@@ -5423,7 +5416,7 @@
         <v>711800</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>10</v>
@@ -5437,7 +5430,7 @@
         <v>715800</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>12</v>
@@ -5454,7 +5447,7 @@
         <v>717800</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>10</v>
@@ -5468,7 +5461,7 @@
         <v>720800</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>59</v>
@@ -5477,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I259" s="3" t="s">
         <v>56</v>
@@ -5511,7 +5504,7 @@
         <v>724800</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>12</v>
@@ -5542,7 +5535,7 @@
         <v>729800</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>10</v>
@@ -5556,7 +5549,7 @@
         <v>732800</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>59</v>
@@ -5564,9 +5557,7 @@
       <c r="F264" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H264" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="H264" s="2"/>
       <c r="I264" s="3" t="s">
         <v>56</v>
       </c>
@@ -5635,7 +5626,7 @@
         <v>740800</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>59</v>
@@ -5666,7 +5657,7 @@
         <v>744800</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>12</v>
@@ -5711,7 +5702,7 @@
         <v>749800</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>12</v>
@@ -5737,7 +5728,7 @@
         <v>752800</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>59</v>
@@ -5757,7 +5748,7 @@
         <v>754800</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>12</v>
@@ -5777,7 +5768,7 @@
         <v>756800</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>10</v>
@@ -5820,7 +5811,7 @@
         <v>54</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I279" s="3" t="s">
         <v>56</v>
@@ -5848,7 +5839,7 @@
         <v>767800</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>10</v>
@@ -5862,7 +5853,7 @@
         <v>769800</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>10</v>
@@ -5890,7 +5881,7 @@
         <v>771180</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>10</v>
@@ -5904,7 +5895,7 @@
         <v>773480</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>10</v>
@@ -5918,7 +5909,7 @@
         <v>778340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>59</v>
@@ -5930,7 +5921,7 @@
         <v>54</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I286" s="3" t="s">
         <v>56</v>
@@ -5944,13 +5935,16 @@
         <v>780820</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="H287" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>56</v>
@@ -6006,6 +6000,9 @@
       <c r="F290" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H290" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="I290" s="3" t="s">
         <v>56</v>
       </c>
@@ -6032,7 +6029,7 @@
         <v>790080</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>10</v>
@@ -6046,7 +6043,7 @@
         <v>792220</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>10</v>
@@ -6074,7 +6071,7 @@
         <v>799100</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>10</v>
@@ -6102,7 +6099,7 @@
         <v>804380</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>10</v>
@@ -6116,7 +6113,7 @@
         <v>809980</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>10</v>
